--- a/APP_PERSONAS/src/test/resources/datadriven/crediagil/DesembolsoCrediagil.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/crediagil/DesembolsoCrediagil.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/crediagil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\crediagil\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6865A0-4ADD-472D-AFF3-33CA81B83BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="FueraRango" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -111,13 +113,22 @@
   </si>
   <si>
     <t>406-182800-02</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>600000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,13 +210,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -468,27 +482,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="6" width="11" style="1"/>
     <col min="7" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1"/>
-    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1"/>
-    <col min="14" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -580,6 +594,162 @@
       </c>
       <c r="O2" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8648F65-F5DC-4544-B1B5-1EA318C122D9}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/crediagil/DesembolsoCrediagil.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/crediagil/DesembolsoCrediagil.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\crediagil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\crediagil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6865A0-4ADD-472D-AFF3-33CA81B83BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
     <sheet name="FueraRango" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -94,9 +93,6 @@
     <t>pruebauser01</t>
   </si>
   <si>
-    <t>6789</t>
-  </si>
-  <si>
     <t>tipoCuenta</t>
   </si>
   <si>
@@ -122,12 +118,15 @@
   </si>
   <si>
     <t>600000000</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -210,7 +209,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,16 +481,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="6" width="11" style="1"/>
+    <col min="1" max="3" width="11" style="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1"/>
     <col min="7" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1"/>
     <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
@@ -499,7 +500,8 @@
     <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1"/>
     <col min="14" max="14" width="16.375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="1"/>
+    <col min="15" max="15" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -540,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -563,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -587,13 +589,13 @@
         <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -602,11 +604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8648F65-F5DC-4544-B1B5-1EA318C122D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -649,13 +651,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -672,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -696,18 +698,18 @@
         <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -719,7 +721,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
@@ -743,13 +745,13 @@
         <v>20</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/crediagil/DesembolsoCrediagil.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/crediagil/DesembolsoCrediagil.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\crediagil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\crediagil\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C96E0F-7828-40D6-BC99-2520D705971D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -209,7 +210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,26 +482,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" style="1"/>
-    <col min="7" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1"/>
-    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1"/>
-    <col min="14" max="14" width="16.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -604,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.3"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
